--- a/biology/Botanique/Nitella/Nitella.xlsx
+++ b/biology/Botanique/Nitella/Nitella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nitella est un genre d'algues vertes de la famille des Characeae.
 </t>
@@ -511,9 +523,11 @@
           <t>Biochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir été identifiée pour la première fois chez l'espèce Nitella flexilis[1], une protéine semblable à celle de la « myosine B » a ensuite aussi été identifiée dans les cellules de la plante aquatique Egeria densa (1979)[2] (avec de l'actine comme principal composant).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir été identifiée pour la première fois chez l'espèce Nitella flexilis, une protéine semblable à celle de la « myosine B » a ensuite aussi été identifiée dans les cellules de la plante aquatique Egeria densa (1979) (avec de l'actine comme principal composant).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (30 avril 2013) :
 Nitella abyssinica A.Braun
 Nitella acuminata A.Braun ex Wallman
 Nitella africana (A.Braun) Kützing
@@ -794,7 +810,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Agardh, 1824 : Systema algarum. Lundae, Literis Berlingianis, p. 1-312 (texte intégral)
 </t>
